--- a/paramyxoviridae/family.xlsx
+++ b/paramyxoviridae/family.xlsx
@@ -75,6 +75,48 @@
     <t>target-based_assays</t>
   </si>
   <si>
+    <t>AFP87280.1_Cedar_henipavirus</t>
+  </si>
+  <si>
+    <t>CedV</t>
+  </si>
+  <si>
+    <t>Cedar virus</t>
+  </si>
+  <si>
+    <t>Henipavirus</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ABY47607.1_Human_respirovirus_3</t>
+  </si>
+  <si>
+    <t>HPIV3</t>
+  </si>
+  <si>
+    <t>Human parainfluenza virus 3</t>
+  </si>
+  <si>
+    <t>Respirovirus</t>
+  </si>
+  <si>
+    <t>BAA35122.1_Measles_morbillivirus</t>
+  </si>
+  <si>
+    <t>MeV</t>
+  </si>
+  <si>
+    <t>Measles virus</t>
+  </si>
+  <si>
+    <t>Morbillivirus</t>
+  </si>
+  <si>
     <t>AFX75110.1_Achimota_pararubulavirus_1</t>
   </si>
   <si>
@@ -87,15 +129,9 @@
     <t>Pararubulavirus</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>AFX75118.1_Achimota_pararubulavirus_2</t>
   </si>
   <si>
@@ -114,9 +150,6 @@
     <t>Bovine parainfluenza virus 3</t>
   </si>
   <si>
-    <t>Respirovirus</t>
-  </si>
-  <si>
     <t>AAC26996.1_Canine_morbillivirus</t>
   </si>
   <si>
@@ -126,21 +159,6 @@
     <t>Canine distemper virus</t>
   </si>
   <si>
-    <t>Morbillivirus</t>
-  </si>
-  <si>
-    <t>AFP87280.1_Cedar_henipavirus</t>
-  </si>
-  <si>
-    <t>CedV</t>
-  </si>
-  <si>
-    <t>Cedar virus</t>
-  </si>
-  <si>
-    <t>Henipavirus</t>
-  </si>
-  <si>
     <t>AET43339.1_Ghana_henipavirus</t>
   </si>
   <si>
@@ -180,15 +198,6 @@
     <t>Orthorubulavirus</t>
   </si>
   <si>
-    <t>ABY47607.1_Human_respirovirus_3</t>
-  </si>
-  <si>
-    <t>HPIV3</t>
-  </si>
-  <si>
-    <t>Human parainfluenza virus 3</t>
-  </si>
-  <si>
     <t>BAJ11747.1_Human_orthorubulavirus_4</t>
   </si>
   <si>
@@ -196,15 +205,6 @@
   </si>
   <si>
     <t>Human parainfluenza virus 4</t>
-  </si>
-  <si>
-    <t>BAA35122.1_Measles_morbillivirus</t>
-  </si>
-  <si>
-    <t>MeV</t>
-  </si>
-  <si>
-    <t>Measles virus</t>
   </si>
   <si>
     <t>AFY09794.1_Menangle_pararubulavirus</t>
@@ -1739,38 +1739,40 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" ht="16.05" customHeight="1">
       <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="C3" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>15</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1793,13 +1795,15 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>17</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1821,9 +1825,9 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1832,28 +1836,26 @@
     </row>
     <row r="6" ht="16.05" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" t="s" s="2">
-        <v>18</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1869,16 +1871,16 @@
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1895,13 +1897,13 @@
         <v>39</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1921,13 +1923,13 @@
         <v>42</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1947,13 +1949,13 @@
         <v>45</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1964,27 +1966,25 @@
     </row>
     <row r="11" ht="16.05" customHeight="1">
       <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="C11" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="D11" t="s" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" t="s" s="2">
-        <v>18</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="12" ht="16.05" customHeight="1">
       <c r="A12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="C12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="D12" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2027,21 +2027,17 @@
         <v>55</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>18</v>
-      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2057,13 +2053,13 @@
         <v>58</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2083,13 +2079,13 @@
         <v>61</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2109,13 +2105,13 @@
         <v>64</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2135,13 +2131,13 @@
         <v>67</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2167,7 +2163,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2187,13 +2183,13 @@
         <v>74</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2213,13 +2209,13 @@
         <v>77</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2239,13 +2235,13 @@
         <v>80</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2265,13 +2261,13 @@
         <v>83</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2291,13 +2287,13 @@
         <v>86</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2317,13 +2313,13 @@
         <v>89</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2343,13 +2339,13 @@
         <v>92</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2369,13 +2365,13 @@
         <v>95</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2395,13 +2391,13 @@
         <v>98</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s" s="2">
         <v>16</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2420,10 +2416,10 @@
         <v>100</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2442,10 +2438,10 @@
         <v>100</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2464,10 +2460,10 @@
         <v>103</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -2486,10 +2482,10 @@
         <v>105</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2508,10 +2504,10 @@
         <v>107</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2530,10 +2526,10 @@
         <v>109</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -2552,10 +2548,10 @@
         <v>109</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -2574,10 +2570,10 @@
         <v>109</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -2596,10 +2592,10 @@
         <v>109</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2618,10 +2614,10 @@
         <v>109</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2640,10 +2636,10 @@
         <v>109</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2662,10 +2658,10 @@
         <v>109</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -2684,10 +2680,10 @@
         <v>117</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2706,10 +2702,10 @@
         <v>117</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2728,10 +2724,10 @@
         <v>117</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -2750,10 +2746,10 @@
         <v>117</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -2772,10 +2768,10 @@
         <v>117</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2794,10 +2790,10 @@
         <v>117</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -2816,10 +2812,10 @@
         <v>117</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -2838,10 +2834,10 @@
         <v>117</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2860,10 +2856,10 @@
         <v>117</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2882,10 +2878,10 @@
         <v>117</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2901,13 +2897,13 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2923,13 +2919,13 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2945,13 +2941,13 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2970,10 +2966,10 @@
         <v>131</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2992,10 +2988,10 @@
         <v>131</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -3014,10 +3010,10 @@
         <v>131</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -3036,10 +3032,10 @@
         <v>131</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -3058,10 +3054,10 @@
         <v>71</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -3080,10 +3076,10 @@
         <v>71</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -3102,10 +3098,10 @@
         <v>71</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -3124,10 +3120,10 @@
         <v>71</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -3146,10 +3142,10 @@
         <v>71</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -3168,10 +3164,10 @@
         <v>71</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -3190,10 +3186,10 @@
         <v>71</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -3212,10 +3208,10 @@
         <v>71</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3231,13 +3227,13 @@
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -3253,13 +3249,13 @@
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -3275,13 +3271,13 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -3297,13 +3293,13 @@
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -3322,10 +3318,10 @@
         <v>148</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -3344,10 +3340,10 @@
         <v>148</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -3363,13 +3359,13 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -3385,13 +3381,13 @@
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -3407,13 +3403,13 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" t="s" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -3429,13 +3425,13 @@
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" t="s" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -3451,13 +3447,13 @@
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" t="s" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -3476,10 +3472,10 @@
         <v>156</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -3498,10 +3494,10 @@
         <v>158</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -3520,10 +3516,10 @@
         <v>160</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -3542,10 +3538,10 @@
         <v>162</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
